--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://highpointuniversity-my.sharepoint.com/personal/azeni_highpoint_edu/Documents/Documents/GitHub/main-algo-project/HPU-Algo-Project/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="11_F25DC773A252ABDACC1048EE811D73505ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA05A3A3-6A8C-4D47-9E80-4E6BB9546FFE}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="11_F25DC773A252ABDACC1048EE811D73505ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68808C80-27D0-4586-A8BB-084B6F87309A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,11 +911,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Writes,</a:t>
+              <a:t>Writes</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> array of 10</a:t>
+              <a:t>, array of 1,000</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -962,7 +962,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compares all writes'!$A$3</c:f>
+              <c:f>'compares all writes'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -983,7 +983,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:f>'compares all writes'!$B$17:$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1009,34 +1009,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compares all writes'!$B$3:$G$3</c:f>
+              <c:f>'compares all writes'!$B$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>989262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>9976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>118034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>162313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>495554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE67-4EEB-AA43-D46041E2BC0D}"/>
+              <c16:uniqueId val="{00000000-7CA7-4BDA-81D0-25B6262ED9ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1045,7 +1045,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compares all writes'!$A$4</c:f>
+              <c:f>'compares all writes'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1066,7 +1066,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:f>'compares all writes'!$B$17:$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1092,34 +1092,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compares all writes'!$B$4:$G$4</c:f>
+              <c:f>'compares all writes'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>9976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>185328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CE67-4EEB-AA43-D46041E2BC0D}"/>
+              <c16:uniqueId val="{00000001-7CA7-4BDA-81D0-25B6262ED9ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1128,7 +1128,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compares all writes'!$A$5</c:f>
+              <c:f>'compares all writes'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1149,7 +1149,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:f>'compares all writes'!$B$17:$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1175,7 +1175,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compares all writes'!$B$5:$G$5</c:f>
+              <c:f>'compares all writes'!$B$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1183,26 +1183,26 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>9976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>182350</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>499500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CE67-4EEB-AA43-D46041E2BC0D}"/>
+              <c16:uniqueId val="{00000002-7CA7-4BDA-81D0-25B6262ED9ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1211,7 +1211,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compares all writes'!$A$6</c:f>
+              <c:f>'compares all writes'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1232,7 +1232,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:f>'compares all writes'!$B$17:$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1258,34 +1258,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compares all writes'!$B$6:$G$6</c:f>
+              <c:f>'compares all writes'!$B$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>988928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>9976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>120430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>182024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>495448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CE67-4EEB-AA43-D46041E2BC0D}"/>
+              <c16:uniqueId val="{00000003-7CA7-4BDA-81D0-25B6262ED9ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1294,7 +1294,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compares all writes'!$A$7</c:f>
+              <c:f>'compares all writes'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1315,7 +1315,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:f>'compares all writes'!$B$17:$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1341,34 +1341,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compares all writes'!$B$7:$G$7</c:f>
+              <c:f>'compares all writes'!$B$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>586008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>9976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>88134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>132473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>69108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CE67-4EEB-AA43-D46041E2BC0D}"/>
+              <c16:uniqueId val="{00000004-7CA7-4BDA-81D0-25B6262ED9ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1381,11 +1381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2069899904"/>
-        <c:axId val="1365086704"/>
+        <c:axId val="571917264"/>
+        <c:axId val="1141293712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2069899904"/>
+        <c:axId val="571917264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1365086704"/>
+        <c:crossAx val="1141293712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1365086704"/>
+        <c:axId val="1141293712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2069899904"/>
+        <c:crossAx val="571917264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4390,1480 +4390,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Writes, array</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of 100</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bubble Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$B$10:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9790</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9802</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E71-4227-859C-27D851B651CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$C$10:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>198</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E71-4227-859C-27D851B651CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$D$10:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8E71-4227-859C-27D851B651CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heap Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$E$10:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3154</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4708</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3282</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1758</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8E71-4227-859C-27D851B651CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$F$10:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3897</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4950</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4950</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3740</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1813</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8E71-4227-859C-27D851B651CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$G$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$G$10:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>766</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8E71-4227-859C-27D851B651CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="256566704"/>
-        <c:axId val="241347760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="256566704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241347760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="241347760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="256566704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Writes,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> array of 1000</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bubble Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$18:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$B$18:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>989262</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>988928</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>586008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3EC1-4C33-BD2C-E6BA4E047288}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$C$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$18:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$C$18:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3EC1-4C33-BD2C-E6BA4E047288}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$D$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$18:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$D$18:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9976</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9976</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9976</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3EC1-4C33-BD2C-E6BA4E047288}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$E$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heap Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$18:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$E$18:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>118034</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>185328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>182350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120430</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88134</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3EC1-4C33-BD2C-E6BA4E047288}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$F$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$18:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$F$18:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>162313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>499500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>499500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>182024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>132473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3EC1-4C33-BD2C-E6BA4E047288}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'compares all writes'!$G$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion Sort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'compares all writes'!$A$18:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Random Array</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Almost Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Reverse Sorted Array</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Duplicates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'compares all writes'!$G$18:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>495554</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>495448</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69108</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3EC1-4C33-BD2C-E6BA4E047288}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1842652128"/>
-        <c:axId val="241350736"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1842652128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241350736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="241350736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1842652128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Writes,</a:t>
             </a:r>
             <a:r>
@@ -6527,7 +5053,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7138,6 +5664,1397 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2138365376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Writes,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> array of 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE67-4EEB-AA43-D46041E2BC0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Almost Sorted Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE67-4EEB-AA43-D46041E2BC0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sorted Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE67-4EEB-AA43-D46041E2BC0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reverse Sorted Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE67-4EEB-AA43-D46041E2BC0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duplicates</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CE67-4EEB-AA43-D46041E2BC0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2069899904"/>
+        <c:axId val="1365086704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2069899904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1365086704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1365086704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2069899904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Writes, array of 100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$9:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C025-4E74-8F6A-25B6FF866791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Almost Sorted Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$9:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C025-4E74-8F6A-25B6FF866791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sorted Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$9:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C025-4E74-8F6A-25B6FF866791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reverse Sorted Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$9:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C025-4E74-8F6A-25B6FF866791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compares all writes'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duplicates</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compares all writes'!$B$9:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compares all writes'!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C025-4E74-8F6A-25B6FF866791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="907036352"/>
+        <c:axId val="571670128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="907036352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571670128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571670128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907036352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12864,78 +12781,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84137</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1982941B-34FD-E1CF-46E8-441B73D06E8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>69849</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>374649</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06CCF5B1-9452-6B6A-96B2-0AC8713B896E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -12963,7 +12808,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12999,7 +12844,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13024,6 +12869,78 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204304D2-D487-84C2-FBD3-B1FD609552DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C097821-D575-8116-AD02-F0047EEE0CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7629441-664D-43FF-CECB-FB76CDC8D8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15297,7 +15214,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
